--- a/nty4athens.xlsx
+++ b/nty4athens.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48" count="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64" count="64">
+  <x:si>
+    <x:t>buiness</x:t>
+  </x:si>
   <x:si>
     <x:t>tel</x:t>
   </x:si>
@@ -25,6 +28,9 @@
     <x:t>fulladdress</x:t>
   </x:si>
   <x:si>
+    <x:t>DEMO - ΣΕΛΙΔΑ - ΠΑΡΟΥΣΙΑΣΗΣ ΗΛΕΚΤΡΟΝΙΚΟΥ ΚΑΤΑΣΤΗΜΑΤΟΣ - ESHOP</x:t>
+  </x:si>
+  <x:si>
     <x:t>2104826000</x:t>
   </x:si>
   <x:si>
@@ -34,6 +40,9 @@
     <x:t>ΚΟΡΑΗ 31 - Μοσχάτο</x:t>
   </x:si>
   <x:si>
+    <x:t>DemoWg8Eshop</x:t>
+  </x:si>
+  <x:si>
     <x:t>2109333101</x:t>
   </x:si>
   <x:si>
@@ -43,6 +52,9 @@
     <x:t>Σαπφούς 144 - Καλλιθέα</x:t>
   </x:si>
   <x:si>
+    <x:t>Led &amp; Clima | Προϊόντα Led &amp; Πώληση - Εγκατάσταση - Τοποθέτηση - Συντήρηση Κλιματιστικών Εθνάρχου Μακαρίου 83 &amp; Πλουτάρχου, Ιλιον Αττικής |  Τηλ: 2105025311 Κιν: 6973370463</x:t>
+  </x:si>
+  <x:si>
     <x:t>2105025311</x:t>
   </x:si>
   <x:si>
@@ -52,6 +64,9 @@
     <x:t>Εθνάρχου Μακαρίου 83 &amp; Πλουτάρχου - Ιλιον</x:t>
   </x:si>
   <x:si>
+    <x:t>ΑΝΤΑΛΛΑΚΤΙΚΑ ΑΥΤΟΚΙΝΗΤΩΝ-ΔΙΑΓΝΩΣΤΙΚΑ ΣΥΣΤΗΜΑΤΑ ΚΑΜΠΟΛΗΣ ΓΕΩΡΓΙΟΣ-KAMPOLIS SPARE PARTS AND TOOLS</x:t>
+  </x:si>
+  <x:si>
     <x:t>2168096109-10-11</x:t>
   </x:si>
   <x:si>
@@ -61,6 +76,9 @@
     <x:t>ΑΡΓΟΥΣ 5, ΚΟΛΩΝΟΣ - Αθήνα</x:t>
   </x:si>
   <x:si>
+    <x:t>ΑΡΩΜΑ ΦΕΡOΜΟΝΗΣ ΠΕΡΙΣΤΕΡΙ ΑΘΗΝΑ ΑΤΤΙΚΗ - ΑΝΔΡΙΚΑ ΑΡΩΜΑΤΑ - ΓΥΝΑΙΚΕΙΑ ΑΡΩΜΑΤΑ - ΑΡΩΜΑΤΑ ΦΕΡΟΜΟΝΕΣ</x:t>
+  </x:si>
+  <x:si>
     <x:t>2155301941</x:t>
   </x:si>
   <x:si>
@@ -70,6 +88,9 @@
     <x:t>Λεωφόρος Παναγή Τσαλδάρη 63 - Περιστέρι</x:t>
   </x:si>
   <x:si>
+    <x:t>ΒΟΤΑΝΑ - ΜΠΑΧΑΡΙΚΑ - ΠΑΡΑΔΟΣΙΑΚΑ ΠΡΟΙΟΝΤΑ - ΒΙΟΛΟΓΙΚΑ - ΕΚΚΛΗΣΙΑΣΤΙΚΑ ΕΙΔΗ - ΣΠΑΣΕ ΤΟ ΡΟΔΙ ΒΑΡΗ ΑΤΤΙΚΗ</x:t>
+  </x:si>
+  <x:si>
     <x:t>2114073812</x:t>
   </x:si>
   <x:si>
@@ -79,6 +100,9 @@
     <x:t>ΒΑΚΧΟΥ-1Α (έναντι εκκλησίας εισόδια της θεοτόκου) - Βάρη</x:t>
   </x:si>
   <x:si>
+    <x:t>ΕΙΔΗ ΛΑΙΚΗΣ ΤΕΧΝΗΣ - GREEK ART - ΣΟΥΒΕΝΙΡ ΚΟΥΚΑΚΙ - ΑΓΑΛΜΑΤΑ - ΚΕΡΑΜΙΚΑ - ΤΟΥΡΙΣΤΙΚΑ ΕΙΔΗ - ΚΙΟΝΕΣ ΑΘΗΝΑ - ΑΝΤΙΓΡΑΦΑ ΜΟΥΣΕΙΟΥ - ΔΙΑΚΟΣΜΗΤΙΚΑ ΑΚΡΟΠΟΛΗ ΜΕΤΑΞΟΥΡΓΕΙΟ ΘΗΣΕΙΟ ΓΚΑΖΙ</x:t>
+  </x:si>
+  <x:si>
     <x:t>2109249580</x:t>
   </x:si>
   <x:si>
@@ -88,6 +112,9 @@
     <x:t>ΡΟΒΕΡΤΟΥ ΓΚΑΛΛΙ 8 - ΚΟΥΚΑΚΙ - Αθήνα</x:t>
   </x:si>
   <x:si>
+    <x:t>ΕΙΔΗ ΣΧΕΔΙΟΥ ΖΩΓΡΑΦΙΚΗΣ ΧΕΙΡΟΤΕΧΝΙΑΣ ΝΕΑ ΣΜΥΡΝΗ - Ε-SHOP</x:t>
+  </x:si>
+  <x:si>
     <x:t>2109337888</x:t>
   </x:si>
   <x:si>
@@ -97,6 +124,9 @@
     <x:t>ΚΩΝΣΤΑΝΤΙΝΟΥ ΠΑΛΑΙΟΛΟΓΟΥ 1 - Νέα Σμύρνη</x:t>
   </x:si>
   <x:si>
+    <x:t>ΖΕΠΠΟΣ ΕΜ. ΣΩΤΗΡΙΟΣ - ΥΠΗΡΕΣΙΕΣ ΤΗΛΕΦΩΝΙΚΟΥ ΚΕΝΤΡΟΥ</x:t>
+  </x:si>
+  <x:si>
     <x:t>2114111360</x:t>
   </x:si>
   <x:si>
@@ -106,6 +136,9 @@
     <x:t>Ηλια Ηλίου 85, Νέος Κόσμος  &amp; Ψαρρών 1, Παλλήνη - Νεος Κόσμος</x:t>
   </x:si>
   <x:si>
+    <x:t>Η φωλιά του πλεκτού - Βιοτεχνία Πλεκτών Αθήνα Αττική</x:t>
+  </x:si>
+  <x:si>
     <x:t>2109026128,2107569593</x:t>
   </x:si>
   <x:si>
@@ -115,6 +148,9 @@
     <x:t>Φρύνης 22 (Παγκράτι), Αρτεμώνος 84 (Δάφνη) - Αθήνα</x:t>
   </x:si>
   <x:si>
+    <x:t>ΗΛΕΚΤΡΟΛΟΓΙΚΟ ΚΕΝΤΡΟ ΑΥΤΟΚΙΝΗΤΩΝ ΒΥΡΩΝΑΣ - Π. ΛΑΓΑΤΟΡΑΣ - Α. ΤΖΑΝΑΒΑΡΗΣ - ΑΝΤΑΛΛΑΚΤΙΚΑ - ΜΠΑΤΑΡΙΕΣ - ΑΞΕΣΟΥΑΡ ΑΥΤΟΚΙΝΗΤΩΝ - ΕΠΙΣΚΕΥΕΣ ΕΓΚΕΦΑΛΩΝ ΑΤΤΙΚΗ</x:t>
+  </x:si>
+  <x:si>
     <x:t>2107653738</x:t>
   </x:si>
   <x:si>
@@ -124,6 +160,9 @@
     <x:t>ΚΑΡΑΟΛΗ ΔΗΜΗΤΡΙΟΥ 67 - Βύρωνας</x:t>
   </x:si>
   <x:si>
+    <x:t>ΝΕΑ ΖΩΗ - ΒΙΟΛΟΓΙΚΑ ΠΡΟΙΟΝΤΑ ΠΑΡΑΔΟΣΙΑΚΑ ΤΡΟΦΙΜΑ ΚΑΙ ΚΑΛΛΥΝΤΙΚΑ ΗΛΙΟΥΠΟΛΗ ΑΘΗΝΑ</x:t>
+  </x:si>
+  <x:si>
     <x:t>2109912408</x:t>
   </x:si>
   <x:si>
@@ -133,6 +172,9 @@
     <x:t>ΠΡΩΤΟΠΑΠΠΑ 38 - Ηλιούπολη</x:t>
   </x:si>
   <x:si>
+    <x:t>ΟΛΟΚΛΗΡΩΜΕΝΑ  ΣΥΣΤΗΜΑΤΑ ΕΞΑΤΜΙΣΕΩΝ, ΑΝΟΞΕΙΔΩΤΕΣ ΒΕΛΤΙΩΤΙΚΕΣ ΕΞΑΤΜΙΣΕΙΣ, ΜΠΟΥΚΕΣ ΕΞΑΤΜΙΣΕΩΝ, ΚΑΤΑΛΥΤΕΣ, ΦΙΛΤΡΑ DIESEL, INTERCOOLER, TURBO KIT</x:t>
+  </x:si>
+  <x:si>
     <x:t>2105911848</x:t>
   </x:si>
   <x:si>
@@ -142,6 +184,9 @@
     <x:t>ΛΕΩΦΟΡΟΣ ΑΘΗΝΩΝ 18 - Περιστέρι</x:t>
   </x:si>
   <x:si>
+    <x:t>2102013132 - ΦΥΣΙΚΟΘΕΡΑΠΕΥΤΗΣ ΚΑΝΕΛΛΟΠΟΥΛΟΣ ΓΙΩΡΓΟΣ ΑΓΙΟΣ ΛΟΥΚΑΣ ΠΑΤΗΣΙΑ ΑΘΗΝΑ - ΦΥΣΙΚΟΘΕΡΑΠΕΙΑ</x:t>
+  </x:si>
+  <x:si>
     <x:t>2102013132</x:t>
   </x:si>
   <x:si>
@@ -149,6 +194,9 @@
   </x:si>
   <x:si>
     <x:t>ΕΙΚΟΣΤΗΣ ΟΓΔΟΗΣ ΟΚΤΩΒΡΙΟΥ 291, ΑΓΙΟΣ ΛΟΥΚΑΣ - Κατω Πατησια</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 ΚΤΗΝΙΑΤΡΕΙΟ - ΚΤΗΝΙΑΤΡΕΙΟ ΗΛΙΟΥΠΟΛΗ ΑΘΗΝΑ</x:t>
   </x:si>
   <x:si>
     <x:t>2109933670</x:t>
@@ -520,7 +568,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -530,170 +578,218 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
